--- a/storage/app/xlsx/seed_cidades_rj.xlsx
+++ b/storage/app/xlsx/seed_cidades_rj.xlsx
@@ -23,7 +23,7 @@
     <t>ANGRENSE</t>
   </si>
   <si>
-    <t>cb4e7b5a-07c0-4114-97ef-ba959e6d9d33</t>
+    <t>e139ffe6-f3c0-4fca-aac0-c9820b12ca19</t>
   </si>
   <si>
     <t>APERIBÉ</t>

--- a/storage/app/xlsx/seed_cidades_rj.xlsx
+++ b/storage/app/xlsx/seed_cidades_rj.xlsx
@@ -23,7 +23,7 @@
     <t>ANGRENSE</t>
   </si>
   <si>
-    <t>e139ffe6-f3c0-4fca-aac0-c9820b12ca19</t>
+    <t>c7e373cc-abec-4cf9-88d4-1d3dc85a18a4</t>
   </si>
   <si>
     <t>APERIBÉ</t>

--- a/storage/app/xlsx/seed_cidades_rj.xlsx
+++ b/storage/app/xlsx/seed_cidades_rj.xlsx
@@ -23,7 +23,7 @@
     <t>ANGRENSE</t>
   </si>
   <si>
-    <t>c7e373cc-abec-4cf9-88d4-1d3dc85a18a4</t>
+    <t>dec9a0c2-a41a-41b5-a2c1-55064131a497</t>
   </si>
   <si>
     <t>APERIBÉ</t>

--- a/storage/app/xlsx/seed_cidades_rj.xlsx
+++ b/storage/app/xlsx/seed_cidades_rj.xlsx
@@ -23,7 +23,7 @@
     <t>ANGRENSE</t>
   </si>
   <si>
-    <t>dec9a0c2-a41a-41b5-a2c1-55064131a497</t>
+    <t>fe9c0395-6a4f-4151-870b-45922a2bfbf1</t>
   </si>
   <si>
     <t>APERIBÉ</t>

--- a/storage/app/xlsx/seed_cidades_rj.xlsx
+++ b/storage/app/xlsx/seed_cidades_rj.xlsx
@@ -23,7 +23,7 @@
     <t>ANGRENSE</t>
   </si>
   <si>
-    <t>fe9c0395-6a4f-4151-870b-45922a2bfbf1</t>
+    <t>367c49c2-5f09-4159-a83f-a0749a88964c</t>
   </si>
   <si>
     <t>APERIBÉ</t>

--- a/storage/app/xlsx/seed_cidades_rj.xlsx
+++ b/storage/app/xlsx/seed_cidades_rj.xlsx
@@ -23,7 +23,7 @@
     <t>ANGRENSE</t>
   </si>
   <si>
-    <t>367c49c2-5f09-4159-a83f-a0749a88964c</t>
+    <t>c34a5aa4-f9ed-4b4c-8059-d21ca10db8b6</t>
   </si>
   <si>
     <t>APERIBÉ</t>
